--- a/1999 - 2001 Expenses/1999 - 2001 expense estimations.xlsx
+++ b/1999 - 2001 Expenses/1999 - 2001 expense estimations.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="27795" windowHeight="13110"/>
@@ -11,9 +11,9 @@
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
     <sheet name="My mistakes" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -300,12 +300,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,7 +404,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -492,730 +495,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1239,643 +518,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -2085,20 +727,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-CA"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[1999 - 2001 expense estimations.xlsx]Analysis!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -2112,6 +770,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2126,6 +785,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Analysis!$B$9:$B$32</c:f>
@@ -2282,41 +942,59 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="131023232"/>
-        <c:axId val="131024768"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="296794752"/>
+        <c:axId val="297152896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131023232"/>
+        <c:axId val="296794752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131024768"/>
+        <c:crossAx val="297152896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131024768"/>
+        <c:axId val="297152896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131023232"/>
+        <c:crossAx val="296794752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2328,15 +1006,26 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-CA"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[1999 - 2001 expense estimations.xlsx]Analysis!PivotTable1</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -2362,6 +1051,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2376,6 +1066,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Analysis!$B$9:$B$32</c:f>
@@ -2532,41 +1223,59 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="45128320"/>
-        <c:axId val="70246784"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="297091840"/>
+        <c:axId val="297093376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45128320"/>
+        <c:axId val="297091840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70246784"/>
+        <c:crossAx val="297093376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70246784"/>
+        <c:axId val="297093376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45128320"/>
+        <c:crossAx val="297091840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2698,6 +1407,11 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -3219,7 +1933,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B8:C32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -3352,46 +2066,46 @@
     <dataField name="Sum of Estimation (us dollars)" fld="1" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="104">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="103">
+    <format dxfId="13">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="100">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="9">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3420,7 +2134,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="C8:D32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -3553,27 +2267,27 @@
     <dataField name="Sum of Estimation (us dollars)" fld="1" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="85">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="3">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3603,17 +2317,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B8:G72" totalsRowShown="0">
-  <autoFilter ref="B8:G72">
-    <filterColumn colId="2"/>
-    <filterColumn colId="5"/>
-  </autoFilter>
+  <autoFilter ref="B8:G72"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="110"/>
-    <tableColumn id="2" name="Estimation (us dollars)" dataDxfId="109"/>
-    <tableColumn id="5" name="Category" dataDxfId="108"/>
-    <tableColumn id="3" name="Year" dataDxfId="107"/>
-    <tableColumn id="4" name="Note" dataDxfId="106"/>
-    <tableColumn id="6" name="Note II" dataDxfId="105"/>
+    <tableColumn id="1" name="Name" dataDxfId="20"/>
+    <tableColumn id="2" name="Estimation (us dollars)" dataDxfId="19"/>
+    <tableColumn id="5" name="Category" dataDxfId="18"/>
+    <tableColumn id="3" name="Year" dataDxfId="17"/>
+    <tableColumn id="4" name="Note" dataDxfId="16"/>
+    <tableColumn id="6" name="Note II" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3694,6 +2405,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3728,6 +2440,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3903,17 +2616,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B8:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
@@ -3923,7 +2636,7 @@
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -3943,7 +2656,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
@@ -3959,7 +2672,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -3975,7 +2688,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
@@ -3991,7 +2704,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
@@ -4007,7 +2720,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
@@ -4023,7 +2736,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>88</v>
       </c>
@@ -4039,7 +2752,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
@@ -4055,7 +2768,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
@@ -4071,7 +2784,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
@@ -4087,7 +2800,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
@@ -4103,7 +2816,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
@@ -4119,7 +2832,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
@@ -4135,7 +2848,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
@@ -4151,7 +2864,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
@@ -4167,7 +2880,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
@@ -4183,7 +2896,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
@@ -4199,7 +2912,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>16</v>
       </c>
@@ -4215,7 +2928,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
@@ -4231,7 +2944,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>18</v>
       </c>
@@ -4249,7 +2962,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
@@ -4265,7 +2978,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
@@ -4281,7 +2994,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>23</v>
       </c>
@@ -4299,7 +3012,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>25</v>
       </c>
@@ -4317,7 +3030,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>27</v>
       </c>
@@ -4335,7 +3048,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
@@ -4354,7 +3067,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
@@ -4373,7 +3086,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>32</v>
       </c>
@@ -4392,7 +3105,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>35</v>
       </c>
@@ -4408,7 +3121,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>36</v>
       </c>
@@ -4424,7 +3137,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>37</v>
       </c>
@@ -4440,7 +3153,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
@@ -4457,7 +3170,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>38</v>
       </c>
@@ -4474,7 +3187,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>38</v>
       </c>
@@ -4491,7 +3204,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>39</v>
       </c>
@@ -4507,7 +3220,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>40</v>
       </c>
@@ -4521,7 +3234,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>41</v>
       </c>
@@ -4539,7 +3252,7 @@
       </c>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>43</v>
       </c>
@@ -4555,7 +3268,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>44</v>
       </c>
@@ -4571,7 +3284,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>45</v>
       </c>
@@ -4587,7 +3300,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>46</v>
       </c>
@@ -4603,7 +3316,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>47</v>
       </c>
@@ -4619,7 +3332,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>48</v>
       </c>
@@ -4635,7 +3348,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>49</v>
       </c>
@@ -4651,7 +3364,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>68</v>
       </c>
@@ -4667,7 +3380,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>69</v>
       </c>
@@ -4683,7 +3396,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>70</v>
       </c>
@@ -4699,7 +3412,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>71</v>
       </c>
@@ -4715,7 +3428,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>71</v>
       </c>
@@ -4731,7 +3444,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>71</v>
       </c>
@@ -4747,7 +3460,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>72</v>
       </c>
@@ -4763,7 +3476,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>72</v>
       </c>
@@ -4779,7 +3492,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>72</v>
       </c>
@@ -4795,7 +3508,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>73</v>
       </c>
@@ -4811,7 +3524,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>75</v>
       </c>
@@ -4831,7 +3544,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>75</v>
       </c>
@@ -4849,7 +3562,7 @@
       </c>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>75</v>
       </c>
@@ -4867,7 +3580,7 @@
       </c>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>82</v>
       </c>
@@ -4883,7 +3596,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>83</v>
       </c>
@@ -4899,7 +3612,7 @@
       <c r="F66" s="9"/>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
         <v>84</v>
       </c>
@@ -4916,7 +3629,7 @@
       <c r="F67" s="9"/>
       <c r="G67" s="11"/>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
         <v>84</v>
       </c>
@@ -4933,7 +3646,7 @@
       <c r="F68" s="9"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
         <v>84</v>
       </c>
@@ -4954,7 +3667,7 @@
         <v>108020</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
         <v>87</v>
       </c>
@@ -4971,7 +3684,7 @@
       <c r="F70" s="9"/>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
         <v>90</v>
       </c>
@@ -4987,7 +3700,7 @@
       <c r="F71" s="9"/>
       <c r="G71" s="11"/>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
         <v>91</v>
       </c>
@@ -5007,8 +3720,8 @@
   <conditionalFormatting sqref="C9:D72">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
     </cfRule>
@@ -5022,7 +3735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5032,13 +3745,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:3" ht="30">
+    <row r="8" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>79</v>
       </c>
@@ -5046,7 +3759,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="26.25">
+    <row r="9" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B9" s="14" t="s">
         <v>62</v>
       </c>
@@ -5054,7 +3767,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="26.25">
+    <row r="10" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B10" s="14" t="s">
         <v>75</v>
       </c>
@@ -5062,7 +3775,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="26.25">
+    <row r="11" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>64</v>
       </c>
@@ -5070,7 +3783,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="26.25">
+    <row r="12" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B12" s="14" t="s">
         <v>51</v>
       </c>
@@ -5078,7 +3791,7 @@
         <v>11650</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="26.25">
+    <row r="13" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B13" s="14" t="s">
         <v>89</v>
       </c>
@@ -5086,7 +3799,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="26.25">
+    <row r="14" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
         <v>65</v>
       </c>
@@ -5094,7 +3807,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="26.25">
+    <row r="15" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B15" s="14" t="s">
         <v>85</v>
       </c>
@@ -5102,7 +3815,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="26.25">
+    <row r="16" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B16" s="14" t="s">
         <v>53</v>
       </c>
@@ -5110,7 +3823,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="26.25">
+    <row r="17" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B17" s="14" t="s">
         <v>58</v>
       </c>
@@ -5118,7 +3831,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="26.25">
+    <row r="18" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B18" s="14" t="s">
         <v>86</v>
       </c>
@@ -5126,7 +3839,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="26.25">
+    <row r="19" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B19" s="14" t="s">
         <v>63</v>
       </c>
@@ -5134,7 +3847,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="26.25">
+    <row r="20" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="14" t="s">
         <v>57</v>
       </c>
@@ -5142,7 +3855,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="26.25">
+    <row r="21" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B21" s="14" t="s">
         <v>67</v>
       </c>
@@ -5150,7 +3863,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="26.25">
+    <row r="22" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B22" s="14" t="s">
         <v>66</v>
       </c>
@@ -5158,7 +3871,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="26.25">
+    <row r="23" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B23" s="14" t="s">
         <v>74</v>
       </c>
@@ -5166,7 +3879,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="26.25">
+    <row r="24" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B24" s="14" t="s">
         <v>55</v>
       </c>
@@ -5174,7 +3887,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="26.25">
+    <row r="25" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B25" s="14" t="s">
         <v>52</v>
       </c>
@@ -5182,7 +3895,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="26.25">
+    <row r="26" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B26" s="14" t="s">
         <v>61</v>
       </c>
@@ -5190,7 +3903,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="26.25">
+    <row r="27" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B27" s="14" t="s">
         <v>87</v>
       </c>
@@ -5198,7 +3911,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="26.25">
+    <row r="28" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B28" s="14" t="s">
         <v>59</v>
       </c>
@@ -5206,7 +3919,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="26.25">
+    <row r="29" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B29" s="14" t="s">
         <v>60</v>
       </c>
@@ -5214,7 +3927,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="26.25">
+    <row r="30" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B30" s="14" t="s">
         <v>54</v>
       </c>
@@ -5222,7 +3935,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="26.25">
+    <row r="31" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B31" s="14" t="s">
         <v>56</v>
       </c>
@@ -5230,7 +3943,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="26.25">
+    <row r="32" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B32" s="16" t="s">
         <v>80</v>
       </c>
@@ -5246,7 +3959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5256,13 +3969,13 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:4">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>79</v>
       </c>
@@ -5270,7 +3983,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>62</v>
       </c>
@@ -5278,7 +3991,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>75</v>
       </c>
@@ -5286,7 +3999,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>64</v>
       </c>
@@ -5294,7 +4007,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>51</v>
       </c>
@@ -5302,7 +4015,7 @@
         <v>11650</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>89</v>
       </c>
@@ -5310,7 +4023,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="14" spans="3:4">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>65</v>
       </c>
@@ -5318,7 +4031,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>85</v>
       </c>
@@ -5326,7 +4039,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="16" spans="3:4">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>53</v>
       </c>
@@ -5334,7 +4047,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
         <v>58</v>
       </c>
@@ -5342,7 +4055,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
         <v>86</v>
       </c>
@@ -5350,7 +4063,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
         <v>63</v>
       </c>
@@ -5358,7 +4071,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
         <v>57</v>
       </c>
@@ -5366,7 +4079,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
         <v>67</v>
       </c>
@@ -5374,7 +4087,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>66</v>
       </c>
@@ -5382,7 +4095,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="5" t="s">
         <v>74</v>
       </c>
@@ -5390,7 +4103,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
         <v>55</v>
       </c>
@@ -5398,7 +4111,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
         <v>52</v>
       </c>
@@ -5406,7 +4119,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="5" t="s">
         <v>61</v>
       </c>
@@ -5414,7 +4127,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="5" t="s">
         <v>87</v>
       </c>
@@ -5422,7 +4135,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="5" t="s">
         <v>59</v>
       </c>
@@ -5430,7 +4143,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
         <v>60</v>
       </c>
@@ -5438,7 +4151,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
         <v>54</v>
       </c>
@@ -5446,7 +4159,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
         <v>56</v>
       </c>
@@ -5454,7 +4167,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>80</v>
       </c>
